--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1579.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1579.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.036934000307765</v>
+        <v>0.6041439175605774</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.7307738661766052</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.9839804768562317</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.917953014373779</v>
       </c>
       <c r="E1">
-        <v>1.089051301401904</v>
+        <v>4.959304332733154</v>
       </c>
     </row>
   </sheetData>
